--- a/RabiConfig/xlsx/Prefab.xlsx
+++ b/RabiConfig/xlsx/Prefab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51884EB3-CC9B-4C26-9266-81AB4B099147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AEFB1-745A-4CF2-B9B3-BE9E8CA14C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Prefab/WaitingCommandObj.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Prefab/ClickBtnProto.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickBtnProto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,7 +410,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,7 +464,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -484,7 +476,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -493,12 +485,8 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>

--- a/RabiConfig/xlsx/Prefab.xlsx
+++ b/RabiConfig/xlsx/Prefab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62AEFB1-745A-4CF2-B9B3-BE9E8CA14C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D1BE3-E035-407B-9E1C-929E8C902403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,19 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Prefab/UsedCommandObj.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Prefab/WaitingCommandObj.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WaitingCommandItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UsedCommandItem</t>
+    <t>CommandItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/CommandItem.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +402,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,7 +456,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -475,12 +467,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>

--- a/RabiConfig/xlsx/Prefab.xlsx
+++ b/RabiConfig/xlsx/Prefab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765D1BE3-E035-407B-9E1C-929E8C902403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5120741-601F-434F-8CE0-A0A958751D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="3705" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Prefab/CommandItem.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Prefab/StageItem.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,9 +391,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -402,20 +410,20 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="71.25" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="45.25" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="71.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +436,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +449,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,7 +462,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -466,19 +474,23 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>

--- a/RabiConfig/xlsx/Prefab.xlsx
+++ b/RabiConfig/xlsx/Prefab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5120741-601F-434F-8CE0-A0A958751D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B08121D-530D-4D42-A607-3B689BB184B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Prefab/CommandItem.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StageItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Prefab/StageItem.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +399,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -475,12 +467,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -489,12 +477,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
